--- a/output/ejecucion_2/vl/results/base_19_21/vl_1921.xlsx
+++ b/output/ejecucion_2/vl/results/base_19_21/vl_1921.xlsx
@@ -417,16 +417,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>261.478</v>
+        <v>812.005</v>
       </c>
       <c r="C2">
-        <v>341.017</v>
+        <v>1086.037</v>
       </c>
       <c r="D2">
-        <v>29613.338</v>
+        <v>917.828</v>
       </c>
       <c r="E2">
-        <v>38667.535</v>
+        <v>1228.991</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -434,16 +434,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>273.358</v>
+        <v>822.028</v>
       </c>
       <c r="C3">
-        <v>353.704</v>
+        <v>1091.1</v>
       </c>
       <c r="D3">
-        <v>30873.287</v>
+        <v>926.686</v>
       </c>
       <c r="E3">
-        <v>39970.12</v>
+        <v>1230.247</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -451,16 +451,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>268.925</v>
+        <v>813.443</v>
       </c>
       <c r="C4">
-        <v>345.715</v>
+        <v>1078.19</v>
       </c>
       <c r="D4">
-        <v>30307.792</v>
+        <v>917.705</v>
       </c>
       <c r="E4">
-        <v>39029.655</v>
+        <v>1219.062</v>
       </c>
     </row>
   </sheetData>

--- a/output/ejecucion_2/vl/results/base_19_21/vl_1921.xlsx
+++ b/output/ejecucion_2/vl/results/base_19_21/vl_1921.xlsx
@@ -417,16 +417,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>812.005</v>
+        <v>707.506</v>
       </c>
       <c r="C2">
-        <v>1086.037</v>
+        <v>966.3099999999999</v>
       </c>
       <c r="D2">
-        <v>917.828</v>
+        <v>807.6950000000001</v>
       </c>
       <c r="E2">
-        <v>1228.991</v>
+        <v>1104.935</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -434,16 +434,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>822.028</v>
+        <v>712.236</v>
       </c>
       <c r="C3">
-        <v>1091.1</v>
+        <v>968.972</v>
       </c>
       <c r="D3">
-        <v>926.686</v>
+        <v>810.687</v>
       </c>
       <c r="E3">
-        <v>1230.247</v>
+        <v>1104.657</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -451,16 +451,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>813.443</v>
+        <v>732.29</v>
       </c>
       <c r="C4">
-        <v>1078.19</v>
+        <v>1000.404</v>
       </c>
       <c r="D4">
-        <v>917.705</v>
+        <v>837.1319999999999</v>
       </c>
       <c r="E4">
-        <v>1219.062</v>
+        <v>1143.193</v>
       </c>
     </row>
   </sheetData>
